--- a/Research/Prueba de relatos.xlsx
+++ b/Research/Prueba de relatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryu\Desktop\Relatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD15AD0-CE43-41D7-BF7A-EC4042FFFF59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC78E50-4F74-4718-B00D-A85C50F3EEEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,43 +454,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LA PLAZUELA de los  DESAMPARADOS
-LA PLAZUELA DE LOS DESAMPARADOS no es una verdadera plazuela sino más bien un ensanchamiento del puente de piedra que comienza en ella. Siguiendo la costumbre la designaremos como tal, pero en riesgo de perder nuestra veracidad y oponiéndonos a la opinión general que tanto la alaba, quizá si por su proximidad a Palacio debemos declarar que la plazuela está ahora de “capa caída”. Del arco de triunfo  que la adornaba en años anteriores no queda ni vestigios pues un incendio los destruyó totalmente en la madrugada del domingo 10 de abril de 1879 a los cuatro días de la declaratoria de guerra a Chile. Una tradición popular trasmite de boca en boca, tradición que no podríamos considerar exacta hasta tanto que se presentara una prueba cierta de su veracidad, de que el incendiario fue un chileno Cornelio Granados casado con una hija del país.
-El Puente de piedra sobre el rio Rímac construido bajo el gobierno del celoso virrey don Juan de Mendoza y Luna, Marqués de Montesclaros es una de mejores obras de nuestros alarifes coloniales. Los limeños al hablar de él no sin jactancia consignan los miles de claras de huevo que se emplearon en confeccionar la argamasa con que se unieron sus piedras (sin añadirnos jamás qué fin corrieron las respectivas yemas). Suelen visitar los poyos del puente que resultan cómodos pero fríos asientos vendedores ocasionales de toda clase de objetos y golosinas, desde “rosquetes” y “trompadas” (que las hacen muy buenas la alemana Sofía Mohring y la “negra americana”) hasta libros viejos. Ayer mismo encontramos en uno de los poyos dos muchachos que provistos de un enorme “balay”, de aquellos que usan las planchadoras, lleno de libros forrados en pergamino los ofrecían “a un real al escoger”. A pesar de su baratura no encontraban compradores, nos acercamos a él y nos entretuvimos largo rato en examinarlos: libros místicos en su mayoría, varios escritos en latín, todos llevaban un sello de goma que decía “Gris y Zavala Compra y venta de libros Calle de San Pedro n.82 A.) y algunos además por un segundo sello que tenían indicaban su procedencia de la Biblioteca Nacional destruida innoblemente por el ejército chileno de ocupación. Escogimos dos viejos y maltrechos volúmenes, dimos una peseta y cargamos a casa con ellos:
-“Compendio Historial / de la Vida / la Gloriosa S. Rita / de Cassia Monja en el Obervantisimo Monas / terio de S. María Magdalena de Cassia del / Orden de N.P.S. Agustín / Escríbelo / El M.R. P.M. Fr. Mathias / Lisperguer y solis calificador del Santo Oficio. / Maestro en Artes y Doctor Theologo / En la Real Universidad de S. Marcos, Catedrático (que fue) / de Prima de Sagrada Theología en la Univesi / dad Pontificia de S. Idelfonso Regente General / de los Estudios, y Coronista de esta Provin / cia de el Orden de N.P. / S. Agustín / Dedícalo a N.M.R.P. Fr. Pedro de / Soto Doctor Theologo en la / Real Universidad Prior Provincial de esta Pro / vincia del Orden de N.P. San Agustín. / Lleva al fin del novenario de la Santa /. Con licencia en Lima. Por Joseph de Contreras, impresor Real del S. Oficio y de la / S. Cruzada. Año de 1699” y “Varios eloquentes / libros / recogidos en uno. / Escriviéronlos diferentes autores / y los intitularon:  Retrato Po / lítico del señor Rey don Alfonso el VII. El per / fecto Privado. Advertencias Políticas y Morales. Jacinto Polo de Medina, Gobierno Moral a Lelio./ Don Joseph Rubio Gobierno Moral a Fabio. El R. / P.M. fray Juan Bautista Aguilar Gobierno Moral a Lauro. / Heráclito defendido. Filósofo / que lloraba siempre los sucesos / del mundo. Ponen en el fin del libro la Au / toridades que se citan en el Retrato Político, y / en el del Prefecto Privado y de los autores que se notan en las advertencias Políticas y Morales. / Con licencia: en Valencia. Año 1711”.
-Son tan diferentes estos viejos libros de los actuales, tanto como libros mismos cuanto por su contenido, que no hemos resistido a la tentación de copiar sus portadas, para que cualquiera que lea esta obra saque las consecuencias del caso, poniéndolas sobre su mesa al lado verbi gratia de unos Aletazos del Murciélago o un diccionario de Peruanismos tan parcos en titulo como aquellos generosos.
-Una de las atracciones de la plazuela, al memos para los chicos de la vecindad y aún para los grandes “noveleros”, es el “pigmeo” hojalatero  que en nuestra miscegenación étnica no pasaría de un negrito colorado y que se dedica a vender “monitoras”, jarros y anafes, “olletas”, “chocolateras” y “porongos”, faroles (para los callejones y champucerías), alcuzas y candiles, tacitas para ron y otros objetos que fabrica en su tenducho elevado sobre las ruinas del edificio anejo al arco y que desapareció con él. El pigmeo que no mide una vara de alto retaco, gordito y feo vive en la calle  de la Manteras y cuando pelea con su mujer  una mujer que no merece el muy zamarro, pues es blanca y agraciada y quiere vapulearla, se sube a la mesa de comer y desde allí brinca sobre ella para salirse con su gusto. Diversas veces por haber cometido esa fechoría ha tenido que dormir en la comisaría del cuartel quinto.
-Cerca de este tenducho se ha instalado en otro igual, un cigarrero fabricante de Corbatones” viejo canoso que todo el día “tuerce” con uña de lata ayudado por su hija y manda a vender los cigarros en los poyos del puente en paquetes armados con cintas de “totora”, estos cigarrillos envueltos en papel blanco de San Lorenzo son la delicia de las viejas fumadoras muy abundantes en Lima. El humo del tabaco es un consuelo para las ancianas pobres y olvidadas por su parentela… Nuestro buen viejo cigarrero fabrica también los puros de a centavo chico y los llamados de Cartagena, en los cuales, según puede observarse fácilmente, emplea mas engrudo que hojas de tabaco..
-En la bajada sentado sobre el murito de piedra de la vereda se puede ver al frutero brujo ño José Berna zambo, alto, delgado que tiene la asombrosa peculiaridad de vender frutas que no se producen en la estación. De ahí que se le atribuyan horribles pactos con el enemigo (¡vade retro!) y también de ahí proviene que sea tan favorecido por las antojadizas preñadas de meses mayores que se les antoja comer paltas cuando el tiempo es de chirimoyas… Los muñecos de trapo que hace su mujer ña Joaquina verdaderas caricaturas sociales de la dama aristocrática, la hermana de caridad, la niña de primera comunión, el clérigo, la tamalera, el bizcochero, etc., dignas por su fidelidad de copia de un museo de trajes los coloca Berna en pintoresca promiscuidad con las frutas y las pastillas de oropel…
-Pero nos estamos apartando mucho de la plazuela, subamos al puente para volver a ella, en donde levanta sus ruinosas torres la iglesia de N. S. de los Desamparados y San Francisco de Borja, construida magníficamente merced a la protección que dispensó a su fábrica el ascético Conde de Lemus, quien la inauguró con pompa digna de su rango apadrinando la ceremonia que bendijo don  Cristóbal Quirós junto a la iglesia se alza la preciosa portadita el callejón que conducía a las aulas de la latinidad que sostuvieron los jesuitas antes de su expulsión y en la que instruían gratuitamente a quinientos niños, desde el Christus hasta la retórica Latina y la Historia de las Indias. 
-Instituciones de fin tan piadoso y fundadas por ascetas de la moral rígida como Lemos que respetuoso de la investidura episcopal cuando saludaba al Ilustrísimo Villagómez se ponía casi de hinojos para besarle la mano y el P. Castillo jesuita reputado como siervo de Dios debían tener por irónico contraste de las cosas al correr de los años, de vecino al café Maximiliano frecuentado en las horas nocturnas por gente “non sancta”. Los aires del puente en que resonaban motetes, villancicos, y las graves notas del severo canto llano, vibran ahora con los lascivos sones de la marinera, las alegrías del valse vienés de Strauss o el limeño de Amézaga y las melodías de la canción de moda.
-El salón de cena Maximiliano no cierra nunca sus puertas como que tiene “licencia para amanecer”, se reúne en él todo el pintoresco mundo de la hampa limeña: los badulaques y calaveras de la ciudad, las mujeres malas, sus amantes y toda gente “lechucera” (de media noche) poco conocida de la gente seria y formal. Cuando se acaba la función del teatro los hijos de familia “decentes” que ya tienen llave de puerta de calle y comienzan por esa razón a malograrse trasnochando, aparecen alegremente en el café. Pasada la mampara se extiende un gran salón de mesitas de mármol hechizo con cuatro silletas de esterilla alrededor de cada una. Al fondo un mostrador con vidrieras que exponen a la vista de los concurrentes el “jamón del país” para las butifarras y una serie de fuentes de loza blanca que contienen toda clase de viandas frías y a los lados de la vidriera, en una especie de guardia, dos enormes frascos de “ante con ante” se llenan y vacían varias veces en el transcurso de la noche… Las salas de billar están más al interior y en una suerte de piso alto cuyas ventanas dan sobre la rampa de madera que del puente baja a la Estación de Desamparados. A las once de la noche principia el juego del plato: el de dueño de casa lo trae triunfalmente y lo coloca sobre el verde paño, en el centro exacto de la mesa de billar. Cada jugador se apunta con una peseta, que lo va llenando, y el juego comienza. Hay que hacer una docena de carambolas sin que ninguna de las tres bolas toque el palto, las carambolas deben ser hechas de una en una “y eso” con el mayor cuidado pues un toque al plato hace perder la bolada, el mozo atento a cada vaciada el plato se acerca al ganador para cobrarle el tanto por ciento de lo ganado para la casa.
-Mientras dentro los jugadores de billar se entregan a su favorita distracción, afuera las mesas se van ocupando lentamente. “La Venadito”, “La Pericota”, “La Mono con polca”, “La Golondrina”, La Pacapaca” todo un jardín zoológico    en apodos acompañadas de otras mujeres de alias tan raros como “La Muladar”, “La Torre de Malakoff”, “La Muerte del burro”, “La Aceituna de botija”, “La aprendiz de maromero” y las demás cuyos nombres sirven mucho para las versadas de nuestros listines de toros, charlan y beben animadamente en unión de sus ocasionales amigos. Es la hora del piano, el maestro Cadenas y el maestro Pepito Bonifaz hacen su aparición  la cual es siempre recibida con aplausos por la concurrencia traen un inmenso repertorio y tienen la virtud de satisfacer a todos los gustos. ¡Maestro un valse! Y allá van “Tuyo es mi corazón”, “Embriaguez de amor” o “Vino, mujer y canto”, ¡Una polca maestro! y Bonifaz sonriente ataca “El Huáscar”, “El amor de las limeñas” o “La hija de madame Angot”. ¡Mazurca queremos! “Suspiros de un hambriento”, “Una dulce mirada”, ¡Danzas! “La Bellísima Peruana”, “La Argolla”, “La civilista”, “Porque tengo la cara negra” van haciendo sentir sus melodías en medio de la noche. Es entonces cuando entra en el salón el chinito manicero Antonio.
-Antonio, como casi todos los chinos que hoy viven en el Perú, es protagonista de una trágica historia: “Contratado” por mendaces enganchadores, y en realidad solo plagiado, se le embarcó violentamente con otros mucho paisanos suyos a bordo de un buque incapaz de contener tantos pasajeros y fue durante varios meses de navegación espectador y victima de los abusivos y crueles castigo que se infligieron a sus compañeros, defraudados en el noble y heroico intento de preferir la muerte a una esclavitud hipócritamente simulada con ficciones legales, más no por ello menos humillante y bárbara. Llegó el velero al Callo con su cargamento diezmado por el suicidio, el azote y el hambre, y contra todas las leyes de nuestro país el desgraciado chino fue vendido para servir de peón en una hacienda de la costa. Allí, bajo el látigo de algún desalmado zambo caporal furiosamente poseído del deseo de vengar dobladamente en los inocentes coolies los agravios que recibieron en idénticas circunstancias sus abuelos chalas o mandingas, durmiendo en inmundos galpones y aherrojado por la menor falta siguió viviendo sus penalidades hasta el día día de liberación en que se cumplieron los ocho o más años de su ignominiosa contrata. Después perdió la vista de sus ojos, de esos ojos que habían contemplado hasta donde llegaron la codicia de los hombres aliada con su crueldad, y el desprecio a su raza inteligente y laboriosa de parte de los que titulándose cristianaos olvidaron las puras enseñanzas del Divino Maestro: “Amaos los unos a los otros”… Cuántas veces allá, en el mísero cuartucho de callejón por la calle de Minas cercana al tajamar, de horribles leyendas, que le sirve de habitación meditará su vida y pasarán por su calenturienta imaginación el barracón antro de vicios en el que fuera enganchado, la penosa travesía, los negros días de la hacienda y los más negros aún de su ceguera de hoy  victima eterna de los hombres ha tenido que cambiar el costalito en que llevaba el maní tostado caliente por una lata para librarse de inmisericorde rapiña que quiere arrebatarle su infinitésimo capital cinco o seis reales con lo que no gana, quizá ni otros tantos para poder vivir cortándole el saquito sin que lo sienta para que la caliente mercancía se vaya escurriendo de su receptáculo… En el salón Maximiliano, no encuentra, felizmente, Antonio la hostilidad de los mataperros de las callejas de abajo el puente y el contenido de su lata se vacía, llenándose en cambio sus bolsillos de calderilla. No falta nunca tampoco un compasivo trasnochador que le invita una buena taza de café. Al salir del salón cerca de la puerta le canta un concurrente
-“Oye chino manicero
-Dame medio de maní,
-Que mañana te lo pago
-Cuando pases por aquí”.
-La vida nocturna de la plazuela queda descrita con el café “Maximiliano” en donde se resume toda ella. En cuanto a la diurna la primera manifestación de actividad se encarga de darla el clérigo capellán que oficia una misa en la iglesia—evocadora constante de los beatíficos días en los que gobernaba estas tierras Lemos el devoto, más tarde por la rampa de la estación trafican los pasajeros del Callao: oficinistas de la aduana cuidadosos del buen vestir como de la caligrafía inglesa con que escriben las notas oficiales y las pólizas de despacho, bañistas hombres y mujeres que van a tonificarse en las aguas de nuestro primer puerto “que tiene mucho fierro”, comerciantes y de vez en cuando algún “vaquero” de rango que puede pagar el pasaje. En las horas de almuerzo “La Gran Tijera Incansable” sastrería del amigo Paganini cercana a la calle de Polvos Azules la calle de los bauleros, está siempre animada con la concurrencia de alegres jóvenes “futres” que vienen a probare la ropa mandada a hacer. Las niñas que regresan de comprar el descuido y con cuidado voltean a mirarles.
-La llegada a la vecina estación del trasandino de la fría región chiclina cambia completamente el aspecto de nuestra plazuela: parte del pasaje subiendo por la rampa llena Desamparados de parlanchinas pasajeras que antes de cambiarse la polvorienta ropa del camino van contando sus impresiones de viaje, abrumadas por el peso de las sartas de limas y granadillas que compraron en Surco y San Bartolomé, caseríos serranos esmeraldas entre peñas; negociantes en charqui, huevos y chalona ataviados con lujosos ponchos de vicuña y que traen en las multicolores alforjas obsequios extraños para los compadres limeños y para el tutor encargado de vigilar la educación de sus hijos que están en el “Colegio de la O” de don Pedro Drinot, en el alemán “Instituto de Lima” del doctor Leopoldo Contzen, en el tan conocido francés de “musiu” Garnier en la calle de la Virreina y como nunca falta la nota triste, algunos pobres indios con su “apachico” a la espalda sobre el raído poncho, el sucio ovejón cubriendo la hirsuta pelambre, llegan desde las lejanas Huancavelica y Ayacucho, custodiados por ceñudos gendarmes para su internación en la Penitenciaría Central, en donde van a purgar un abigeato fantástico e irrealizable obra del “tinterillo” bien remunerado por algún enemigo o un crimen, que muchos de ellos no soñaron cometer.
-La otra parte del pasaje, meno numerosa pero mas selecta, prefiere subir por la estación en uno de cuyos salones de primera una esplendida escultura en madera del sueco Young (I) se ofrece a sus miradas profanas incapaces de admirarla conscientemente y van a la esquina de la Pescadería a tomar un coche de plaza que los conduzca a su alojamiento. “Búfalo”, “Pata ´e palo”, “Guacamayo” (todos los cocheros tienen su apodo como sus marchantas las niñas que se divierten) esperan hacer su agosto con la serrana gente… 
-El señor viajero compra un “Comercio” que en ciertas comunes ocasiones resulta La Opinión Nacional con bastantes “Mentiras y Candideces” del cojo Fernando Soria nuestro primer “mozón”(2), o La Tribuna de Luis Faustino Zegers, y los caballos flacos, bajo los chicotazos del auriga, arranca por la Pescadería rumbo al “Hotel Europa” a la “FranciaInglaterra”. Búfalo va cantando:
-“Y esta noche no hay coche
-Porque el cochero Pascual
-Se ha pegado una mona
-Revoleteada por cual”.
-I)Los años y mas que todo la hostilidad del medio han agriado el carácter de Young. No hemos podido hacernos amigos suyos y obtener algunas confidencias. Lo intentamos tocando la puerta de su habitación Inambari, callejuela que por las chacharitas más perdimos el tiempo pues no quiso abrirnos. Apenas si por la ventana de reja logramos verle: pensativo, la gorra negra, encajada hasta la frente, la pipa humeante entre los labios, pasando las manos inquietas a lo largo de su blanca barba. Young se ha dedicado a la escultura de madera. Obras suyas son el león el café San Carlos, en San Juan de Dios, y varias muestras comerciales de las tiendas centrales, entre las cuales recordamos la de la zapatería de su paisano Malmborg en la Merced, muestra que descansa sobre un viejo reloj inglés formando una pareja de interesantes objetos que demuestran el buen gusto de don Nicolás
-2)Fernando Soria debería ser el legitimo sucesor de nuestros más afamados ingenios limeños. Lástima y grande que su incorregible bohemia le impida dedicarse al libro o al teatro. Conoce a fondo nuestro ambiente criollo, maneja bien tanto el español como el “limeño” y tiene inteligencia, valor y corazón. Alto, bien plantado, elegante, de tarro y capa obscura con vueltas rojas, un marapinina con puño de acero toledano adamasquinado entre las manos, se le ve en las tardes charlando en La Opinión Nacional.  
-Su fácil vena se destaca allí en medio del aplauso de sus amigos. La otra tarde alguien leía que en Constantinopla se había realizado una fiesta en la cual el Sultán estuvo un tanto “alegre”  y Soria improvisó enseguida ese delicioso epigrama:
-“Avisan de Turquía que el Sultán
-Se ha “pegado” una turca de Champán 
-¿De Champán?... ¡Quien diría
-Habiendo tantas turcas en Turquía”.
-que puede presentarse como modelo de gracia especialmente limeña y que no se parece en nada a los sarcasmos y crueldades de Arona ni a las crudezas ideológicas y de lenguaje que en veces publica Carlos Germán Amézaga, quien sin duda, por su aspecto oriental, su tez morena y su negrísima barba cerrada se firma FiruzShah. 
-El viaje a pesar de la alegre partida tiene sus intempestivas interrupciones y el canto jocundo de Búfalo cesa a la mitad, pues recordando su querencia los caballos al pasar cerca de uno de los cuatro pilones de la Plaza Mayor, exigen la ración de afrecho y agua que les dan usualmente allí y se niegan a seguir adelante sin recibirla. Hoy se hace de tan hermosos pilones, bien prosaico aprovechamiento. Arrimados a la taza uno o dos costales de afrecho y dos baldes de zinc constituyen todo el capital necesario para un negocio fuera de impuestos y contribuciones de patentes. Despojados de la cabezada y el freno, los pobres animales sumergen la boca en unos bolsones ad hoc que les cuelgan del pescuezo, consumen su medida ración y luego sorben un poco de agua, un relincho de satisfacción da fin al acto y el coche puede continuar. Mientras tal cosa se efectúa los pasajeros reniegan de la tardanza y el negro americano Búfalo suelta sus tacos en puro “gringo” dejando mal a toda la familia del “General Jackson”.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA BAJADA DEL PUENTE Y LA  PLAZUELA DE SAN LÁZARO
 A Carlos Alberto Susanibar
 LO PRIMERO QUE SE HALLA, bajando el puente a la mano derecha, es el bullicioso “Café de la Línea”, hermano gemelo y rival del “Maximiliano”. La clientela no suele ser tan tranquila como parece dado que la mayoría la componen elementos muy relacionados con las “casas de tolerancia” situadas en el Tajamar, de tan mala fama, faites morenos, musculosos, bien parecidos, y a los cuales no les falta en el bolsillo de cartera de la americana una larga y bien afilada “chaveta” cuya punta resguarda hasta el momento en que sea necesario usarla, un grueso tapón de corcho. Pero no toda es tan mala: El cercano molino de Bucelli y Loero proporciona en ciertas horas del día considerable número de parroquianos honestos, empleados y obreros suyos. El lugar es, sin embargo, simpático. Tiene el café dos balcones que dan sobre el río, circunstancia esta que algún romántico tomará como veneciana, malgrado el escaso caudal del Rímac, sobre todo en invierno, y a las basuras que arrojadas por los vecinos arrastra. El propietario ha convertido los balcones en dos pequeños salones llenos de mesitas de mármol blanco y de silletas de esterilla vienesas (casi todas desiguales en forma y estilo), desde los cuales cómodamente sentado se puede ver perfectamente el antiguo  puente de piedra con sus óvalos siempre llenos de gente, la plazuela e iglesia de Desamparados, los balcones e Palacio, las hermosas torres de San Francisco y la esquina de Polvos Azules. Antes de la quemazón del Arco que constituyó para los limeños preciosa muestra del antiguo poderío colonial  la perspectiva debía ser mucho más agradable que en el día.
@@ -619,53 +582,6 @@
 Y otros de menos a más;
 Y dejan por más lo menos
 Valiendo lo menos más”.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La PLAZUELA de las NAZARENAS
-CADA UNA DE LAS PLAZUELAS LIMEÑAS está caracterizada por alguna de sus sobresalientes cualidades. Asó como San Catalina es populachera, militar y jaranista; la Recoleta, varía y abigarrada; San Carlos, alegre y cómica; San Pedro, comercial, abogadil y leguleya; las Nazarenas es una plazuela eminentemente religiosa y monástica.
-La modesta plazuela de las Nazarenas está rodeada de edificios cuyas fábricas no llaman la atención y aún la misma iglesia no tiene valor arquitectónico alguno. Su celebridad le viene de poseer el más preciado tesoro religioso de nuestra ciudad: la venerada imagen de nuestro amo y señor de los Milagros.
-El monasterio en sus principios beaterio de nazarenas carmelitas descalzas de San Joaquín, se inauguró a principios del siglo XVII sacando, para el efecto, a tres religiosas el convento del Carmen, encargadas de ocupar las principales autoridades de la nueva comunidad, que hasta hoy cuida de fomentar el culto del Santo Cristo de los Milagros, cuya nadie ignora, motivo por el cual nos ahorramos de referirla. 
-La portería del monasterio, situada frente al pilón de cantarinas y verdosas aguas, está adornado por varios cuadros al óleo, entre los que se destaca el retrato de la guayaquileña sor Antonia Lucía el Espiritu Santo, fundadora del instituto nazareno, que se presenta con amplio hábito morado, cuerdas en el cuello y la cintura, ceñida la cabeza con una corona de espinas y llevando en sus manos una cruz, vestimenta aquella que aún hoy llevan las buenas monjitas de uno de los conventos más estrictos que hay en Lima. El templo que es de forma elíptica posee un espacioso vestíbulo, buenos retablos y soberbios enrejados en los coros bajos. La imagen del crucificado está en el altar mayor inmejorablemente conservada a despecho de los años y el observador que la mire de cerca puede comprobarlo.
-Detrás de la iglesia se levanta el monasterio, cuyo interior apacible y recogido no es dado ver a los profanos, excepción hecha del médico y el confesor que penetran en él cuando alguna religiosa se halla cerca del trance supremo. Amplios corredores perfumados por madreselvas, aromos y jazmineros, asoleados patios en los cuales crecen añosos arboles frutales, cerezos, lúcumos y chirimoyos, sencillísimas celdas, amobladas por una tarima y una mesa en la que descansan una calavera, una disciplina y varios devotos libros, que reciben luz del día a través de ventanas de talladas columnitas de madera, y dos capillas interiores para los ejercicios espirituales constituyen el recinto en donde varias santas mujeres, ancianas en su mayoría, esperan su liberación de la cárcel de la carne. En ese ambiente propicio a la meditación y al rezo se han perfeccionado muchas almas hasta alcanzar la máxima virtud de la santidad. Sor Antonia Lucía del Espiritu Santo, la madre providencia y otras más, son conocidas por siervas de Dios. María de los Santos el Santísimo Sacramento alias Zambrano pasó parte de su vida en éxtasis y contemplaciones en este convento, vida que su confesor el fraile mercedario Fray Pedro Loayza narró brevemente en un pequeño manuscrito, que constituye una preciada muestra de nuestra literatura hagiográfica colonial XVII. Difícilmente se encontrará una relación en que se pueda estudiar mejor esas vidas pasadas en deliquio continuo, separadas en todo del siglo mundano en el cual al fin y al cabo alguna como la B. María vivieron y tan diferentes de todas las demás que a su rededor van de la cuna a la tumba…   
-He aquí transcrita íntegramente esa desconocida relación manuscrita:
-“Ave María. Yo Fray Pedro Loayza Religioso del Real y Militar orden de Nuestra Señora de las Mercedes, á mayor gloria de Dios y haliento de las almas, paso á hacer esta breve relación de lo que el Señor se digno obrar en la devota Virgen María de los Santos del Santísimo Sacramento, alías Zambrano, Beata Nazarena y digno que = Habiendo Su Majestad adornado con bellísimas inclinaciones esta alma desde sus primeros años, quiso algún día hacerme el bien de ponerla á mi cuydado:  Para mi feliz desempeño traté de inducirla al exercicio de la vida interior y oración mental. Fue tan exacta y fiel en su práctica , que constituida desde entonces en una oración continua, atrajo sobre sí con ella, como el imán más efectivo todas las bendiciones del Cielo. Se solidó y fundó primeramente en una humildad tan entrañable y profunda, que á pesar de su inocencia, de sus virtudes, de las luces, y enseñanzas continuas, con que enriqueció y ennobleció al Altísimo, se tubo siempre por muy mala, muy inferior a todas y sumamente necesitada de recibir documento (¿sacramentos?) De cualquiera fuese el que fuese con tal cuydado sus buenas obras, y los divinos favores que recibía, que solo el temor de errar y la sencillez columbina, que fue como su divisa, abrían el candado de sus labios con imponderables tormentos: Al paso que era elocuente y prontísima en hablar cuando trataba de acusarse y decir mal de sí, tenía formado de sí tal mal concepto que cuando se le hacía alguna falsa acusación aun contra el testimonio favorable de su buena conciencia, se iba con el pensamiento ageno, y decía sin duda que yo no soy la que me engaño y mi amor propio me ciega”. 
-“Su prudencia y sabiduría eran tales que desde que logró aprehenderlas del Divino Maestro en las continuas comunicaciones y repetidas lecciones cuydó de obrar siempre según ellas habiendo sido su mayor prudencia y sabiduría  el haber ocultado que las tenía.
-“Su justicia y rectitud están más que manifiestas en haberse dado toda enteramente al Señor buscando sin intermisión su gloria en haber escogido la humillación y abatimiento para sí, y la gloria, honra y estimación para sus próximos.
-“Su fortaleza, paciencia y templanza, pedían ciertamente más extensión que la de este pequeño apunte, por esto solo diré que esta caña débil en lo visible, fue un cedro el Líbano en lo invisible, pues supo tenerse firme en medio de la ceguedades, obscuridades, repugnancias, amarguras, tedios y desamparados de espiritu: A todo esto solo oponía la paciencia, la humildad y la mayor felicidad, asida a solo la fe en la obscuridad de la noche, que duró casi todo el tiempo de su vida. Las tentaciones en toda la materia, principalmente en la de la pureza, fueron mas que terribles: pero solo sirvieron de dar nuevo realce a sus virtudes y llenarlas de coronas. Parece que las constante y pasifica firmeza en tales penas de espiritu denotan bien su fortaleza y paciencia; mas tampoco dejan de indicarla sobradamente sus padecimientos corporales, así de enfermedades, como de la penitencia. Las enfermedades que casi nunca la desampararon, fueron varias, y gravísimas, sangre por la boca, calenturas continuas, pecho, pulmón, cabeza, estómago, todo en ella estaba dañado haciéndole particular tormento. Cualesquiera de estos males por sí solo habría abrumado enteramente a otra alma menos fuerte y paciente, pero en ella solo sirvieron para materia de estas virtudes, sin haberse jamás disgustado o exasperado por tenerlas ni por ahijones de su agudeza ni por la prolongación de su duración. 
-“Parece que el divino maestro por otra parte queriendo como evocar el filo de su espada en sangre y maceraciones de esta victima inocente no contento con padecimientos dichos, quiso que ella exercitase la penitencia que por nuestros pecados debíamos: Así aunque siempre por su templanza en la comida y bebida podía decirse que su ayuno era continuo, le ordenó el señor mismo muchas vigilias sobre las de la iglesia universal, mandándole que en tales días ayunase con toda ceveridad. La cantidad de pan era bien corta y la de agua tenía por medida una xicarita pequeña que el mismo Señor le señalo siendo que su sed era qual se deja entender por las enfermedades dichas. El régimen que le impuso para la cuarentena fue que ayunase un día a pan y agua y otro al traspaso. En los mismos días por expreso mandato de Su Majestad tenía disciplina muy sangrienta, trahía rayos de hoja de lata hasta verter su sangre de sus delicadas plantas, de las cuales plantillas fue preciso hacer varias por haberlas quebrado por el continuo uso, lo que no pudo haber sido sin dejarle las plantas las plantas de los pies llagadas. Rajo también por muchos tiempos una túnica áspera de lana a raíz de las carnes como también los cilicios, todo por el Señor el qual parece renovó el milagro de los quatro Hebreos, Daniel, Azarias, Misael y Ananias, en esta su sierva poniéndola rosagante y de mejor semblante, en los días que sobre sus enfermedades, y continuos desvelos, se añadían todas las dichas maceraciones.
-“En medio de estas espinas era su alma como una rosa fragante de amor y blanca azucena de pureza; pues mantuvo intacta su virginidad habiéndose consagrado al Señor en voto de perpetua castidad, firmando este con la sangre de sus venas, q. Trayendo ese dichoso papel colgado al cuello en un relicario, como feliz instrumento de los castos desposorios que en una comunión celebró con el Señor llamándola este desde entonces su amada Esposa, y encargándola que les diese el titulo de padre, y Esposo cuando en sus trabajos quisiese obligarle á que la oyese.
-“La que es Virgen por excelencia y la Madre de la Pureza es decir la Santísima Virgen, mi Señora le dio repetidas veces á gustar el néctar dulcísimo de sus castísimos pechos, nombrándola también su amada hija. Los Angeles Santos, y en una palabra todos los cortesanos del cielo la consolaron muchas veces, mostrándosele muy propicios, en particular ya se ve las Santas y Santos mas conocidos, los Patriarcas de las Religiones la acariciaban como á muy querida del Señor, varios Santos otras veces, y entre ellos mas especialmente el Patriarca San Juan de Dios, y San Ramón Nonnato la traxeron en la calidad de obsequio por el amor que les tenía una corona de espinas que le causó cruelísimos dolores de caveza.
-“ Asi, ennoblecida esta vella alma alma logró en una Pascua de Pentecóstes recibir al Espiritu Santo en figura de paloma: en otro tales días al postrarse á los pies de nuestro dulce Redentor la tomó en sus brazos, levantándola, y dándola á beber de su Sacratisimo costado; algunas veces no contento con agasajarla él la mostró á su Eterno Padre, el qual la miraba mostrando una gran complacencia. Su pasión dominante fue el amor a Nuestro Señor Sacramentado; sin duda para refrigerar el ardor que le causaba este amor la mandó el mismo Señor muchos años antes de su muerte, que en cada día hiciese ciento cincuenta comuniones espirituales.
-“Al año siguiente á este orden le añadió, otras cinquenta y como iba en aumento, en los subcesivos, era su vida casi una comunión incesante, muchas veces recibió de manos de los Santos, y la del mismo Señor, principalmente después que sus enfermedades la embarazaron la salida á la iglesia privándola de la Comunión Sacramental; mas como el Señor es la liberalidad, y magnificencia misma, la recompensaba esta privación ya del modo dicho, ya dignándose el mismo en la imagen de un niño que ella veneraba en su habitación y e quien recibió innumerables favores, celebrar para su consuelo muy frecuentemente el Santo Sacrificio de la Misa que nunca dexó de oir aun estando en su cas enferma yendo a los Templos en Espiritu y hecha industriosa aveja y entrando en los sagrarios, como en otras tantas colmenas á labrar la miel de su devoción, que siempre iba en aumento.
-“De esto y de todo lo dicho no podían menos que encenderse en su corazón, unas ancias tales de morir  y salir de la estrecha cárcel del cuerpo que para contenerlas, y moderarlas, necesitaba apelar a su conformidad, que juntamente con la obediencia fueron para ella virtudes muy amadas. Trabajó tanto en efecto a fin de extinguir aun esta Santa pasión, que consiguió aun antes de su muerte, ponerse en una tal conformidad e indiferencia que desnudándose del deseo de morir que le inspiraba su amor, triunfó el amor de si mismo haciendo que en adelante todo su querer fuese no tener ya propio querer aunque en verdad que cuando los Médicos la mandaron Sacramentar no pudo por ma que quiso ocultar el regocijo que le causaba la proximidad de la dichosa hora que tanto había anhelado; pues entonces tuvieron su gran ver la feé viva, la esperanza firme, la caridad ardiente con que el Señor la adornó avivándole las muchas y encarecidas promesas que le hizo enquanto a la felicidad de su tráncito después haberla antes honrado con mucha comunicaciones, favores, manifestaciones de sus secretos como el estado de varias Almas del Purgatorio á quienes alivio mucho, ya para la total donación que les hizo de quanto podía tener de mérito ya rociarlas con la sangre del Señor en un devotísimo exercicio que acostumbraba.   
-“Omito otras muchas cosas por lo inhábil que me tienen mis enfermedades para poder extenderme mas, y concluyo protestando que mi intento en esta relación no es prevenir el juicio de la Santa Iglesia según los decretos Apostólicos del Señor Urbano Octavo, y de la Santa inquisición de Roma y que quanto he dicho solo merece un ascenso de feé puramente humana.
-“Baxo la misma protestación añado habiendo aumentado esta devota Virgen su fervor en los últimos días de su vida me edificaba demasiado con la firmeza de su confiadísima esperanza  que quanto a su salud eterna, hasta el punto de llegar á decir, que si se le apareciera un Ángel  y tratara de intimidarla, de ningún modo vacilaría, pues la bondad de su creador y la sangre de su Redentor le tenían firme á toda prueba. En los siguientes días se veía muy frecuentemente escoltada de Ángeles y Cortesanos del cielo que no cesaban de dar creces a su cristiana esperanza. Asi estuvo hata el día veinte y dos de Diciembre del presente año en a qual puesta en gran debilidad hablaba poco, aunque interiormente, obraba mucho y decia de quando en quando. Nada se puede dexar por hacer para esta hora porque aun la costumbre anticuada de obrar bien casi no tiene lugar en este lance. Y nada haría si el Señor no lo hiciera todo en mi, y si mi Ángel no supliera mis defectos. Otras veces, ay de aquel, que dilata su confesión para esta hora principalmente si no tiene muy aligerada su conciencia, pues si lo que antes se hacia bien no se puede hacer en este lance, cómo saldrá lo que nunca bien se hizo? Luego muy a menudo decía Gracias te doy ó Dios mío, de mi corazón porque muy de antemano me diste lúz, gracia y proporción, para participar quanto necesito en esta hora. Pero oh? Ya esta hora tarda mi buen Jesús. En estos efectos y otros semejantes se matubo hasta la noche en la qual teniendo presente á un Señor Eclesiástico hermano suyo, aunque con el mas profundo rendimiento le habló sobre la alteza de su estado, y los cargos de su parroquial Ministerio con más palabras dignas de gravarse  en un mármol, y para no faltar a su humanidad amadísima concluyó diciendo. Que no ocupaba otro sentimiento fuera de no haber sido fiel en el servicio de su dueño. El día siguiente yendo su debilidad en aumento; pero sin cesar en su interior exercicio volviéndose á una hermana de espiritu le dixo Oh? Ahora es tiempo de toda la fortaleza y recogiéndose en si misma escuchaba atenta con la mayor modestia, cerraba los ojos entre unas tranquilas agonías, y perceverando de la manera dicha con su caveza dulcemente inclinaba al lado del Sacerdote y Crucifijo sin movimiento alguno extraña entregó su alma al Señor á cerca de las dos de la tarde del día veinte y tres de diciembre de mil siete cientos noventa y cinco á los cuarenta y un años, un mes y veinte días de su edad, acaso como lo esperamos de la vondad del Señor para empezar á celebrar en el Cielo la Natividad de su amado Niño desde las vísperas de la vigilia. Antes y después de su muerte estuvo rodeada de seis o siete sacerdotes y muchas Personas seculares, y con los ojos llenos de lagrimas tal vez con una santa enbidia de no acompañarla con iguales señales oraban, y le venían de ito contra el horror natural de los Moribundos y Muertos.
-Dios sea bendito.
-Fr. Pedro Loayza Mercedario
-Acojamos con la fe humana que pedía el autor Padre Loayza esta sencilla relación llena de prodigios y pasemos a la vida misma de nuestra religiosa plazuela que por contraste, muy humano también, se halla cerca de dos lugares propensos al mal: un teatro y cancha de gallos. Veamos algunos de sus tipos populares:
-En la esquina formada por las calles de Nazarenas y Pileta de Nazarenas s encuentra la peluquería flebótomo “Papa Rellena”, quien ha adquirido en buna ley tal apodo a causa de su excesiva gordura que le ha dado aquella redondez golloría criolla. “Papa Rellena” como su rival de la calle de la Moneda es uno de los pocos barberos antiguos que todavía sacan dientes y muelas, afeitan las barbas y sangran a los vecinos de esta ciudad. Si alguno le ocupa aun en practicar sangrías y en aplicar sanguijuelas y ventosas sajantes, métodos curanderiles  contemporáneos d aquí, a pesar de todo hábil cirujano, “doctor” Santitos que: 
-“Recentado está
-Emplasto de malvas
-Con unto sin sal”
-será, sin duda alguna, el doctor Palma, a quien acabamos de ver atravesar la Plaza de Armas, rumbo a su domicilio de la calle de Zamudio, caballero en un escuálido jamelgo digna imagen del celebérrimo Rocinante llevando colgada en la parte delantera de la montura una portaviandas de loza blanca que, seguramente, contiene su almuerzo y en la traerá dos o tres tercios de alfalfa que forman la alimentación diaria del caballo. A tal flebótomo tal cirujano…
-“Papa Rellena” tiene en el lugar principal del estacionamiento como él llama hiperbólicamente a su tenducho colgada, la consabida oleografía del individuo que se afeita solo y del que se hace afeitar por un barbero, compañera de esa otra que representa a los comerciantes, uno que vendió al crédito y otro al contado. Su redonda cara de luna llena se anima con una sonrisa de satisfacción cada vez que un parroquiano hace referencia al cuadro, dándole así ocasión para ponderar las excelencias de su oficio: “Si señor, el barbero diplomado le deja a usted la cara limpia, sin pelo, sin un tajo, fresca y empolvada con “Flores de Plata”, legítimos y olorosos polvos, si señor. Si usted decide afeitarse, en su casa, con una navaja, mal asentada, desde luego, pues usted no tendrá piedra ni práctica en hacerlo, la cara le quedará como un mapamundi”. Tal es el sermón que se tiene aprendido de memoria para asombro del paciente que acude a dejarse sus diez “centavazos” por afeitada.
- De igual manera que la Salud es la plazuela que en nuestra colonial ciudad de los Reyes, ha visto y oido toser más y mejor, las Nazarenas se lleva la supremacía en haber visto y olido el mayor número de negros, negras y negrillos, amén de las pintorescas y complicadas castas de mulatos, zambos cuarterones, quinterones, chinos, rechinos, saltaatrás, tente en el aire y zambohigos, producto de los innumerables cruces que con blancos e indios han tenido los primitivos chalas, mandingas, angolas, y mozambiques traídos desde la lejana África “alma en boca, costal de huesos, a usanza de feria” para servir los intereses a veces sin nombre de la agricultura nacional. La máxima devoción al Señor de los Milagros ha reunido en la plazuela y en la iglesia de las Nazarenas a todos los morenos y pardos e Lima y sus aledaños, más todos aquellos que desde Mala y Cañete, han podido obtener de sus amos dinero y permiso para hacerlo. Venida la libertad y con menos obstáculos la reunión se ha efectuado con más ardor… ¿A cuántas procesiones de Nuestro Amo y Señor de los Milagros asistirían aquellos negros cuyas vidas apenas recuerdan algunos de nuestros contemporáneos?
-La raza negra no ha tenido entre nosotros su poeta ni su pintor que trasladen al campo de la literatura y al del arte ciertas características esenciales muy dignas de perdurar. En efecto, no es posible olvidar a tantos negros (sin pizca de duda todos ellos devoto del Señor) asiduos visitantes en otra épocas de nuestra plazuelita:
-Los dos Médicos Utrilla Perote y Perotito que a principios de siglo XVIII lucían por todo Lima sus grandes sortijas y su escaso saber, antecesores de los célebres “doctores” Ramoncito y Román, menos prietos, pero no menos palangana que ellos.
-Los guaragüeros y quimbosos zambos amansadores de potros al servicio, antes, de los orgullosos nobles coloniales, y ahora, al de los propietarios de las haciendas costeñas.
- Los terribles bandoleros que en la Tablada de Lurín y en Piedras gordas y hasta cerca de las murallas constituían el espanto de los honrados viajeros, tales como el negro León, que siendo esclavo comenzó su agitada carrera al dar muerte a su amo, y consumado este acto huyó dedicándose por varios años al robo en la entera provincia de Lima. Tal era su atrevimiento y arrojo que, mientras su cabeza era puesta el precio de dos mil pesos, entraba a dormir en Lima todas las noches. Viéndose la inutilidad de la oferta se dio un bando por el que se ofrecía mil pesos al bandolero de su cuadrilla que le diera muerte, quedando también libre de toda persecución. Un compañero suyo como diría el mismo por “más señas” compadre espiritual lo estranguló o degolló, según otras versiones, y su cadáver con el fin de escarmentar fue expuesto al público durante tres días en el atrio de la iglesia Catedral. No le iba en zaga José Rayo, héroe de una vida no menos curiosa y accidentada. Por los servicios prestados a nuestros caudillos políticos y presidentes llegó a ser teniente de una “partida montada de campo” policía rural y encargado de esta de manera perseguir a sus antiguos compañeros de robos y asesinatos. Siempre que lograba coger a alguno de éstos le prometía la libertad en cambio de que le descubriera  el sitio en donde se hallaban ocultos los tesoros robados y cuando el iluso bandido aceptaba y descubría el entierro del robo lo fusilaba, sin más trámites, dándole por sepultura el mismo hoyo excavado por su victima. Rayo, vuelto así inflexible castigador del crimen que antes practicaba, era tenido en mucha estima por las autoridades y llamado por éstas su mejor amigo. El negro Roso Arte, bandolero también, adquirió celebridad por fechoría y media que cometió en los campos lo mismo que aquel negro legendario Mogollón quién, según dicen, legó su nombre a la calle en que viviera después de retirarse  la vida privada. La leyenda cuenta que entrar en su casa era entrar a la cueva de Alí Babá y los cuarenta ladrones. Más gentes tan despiadadas y crueles, como estos salteadores no dejaron de sentir en sus almas devoción por alguna imagen del Señor o de la Virgen, expresión de una fe supersticiosa y sin obras, propia de su raza idólatra y fetichista, que quizá hasta los llevó a formar parte de la cofradía del Señor de los Milagros, en la por otra parte figuraban negros de costumbres sanas, muchos de ellos libertos como el simpático y risueño José Luis Cano, antiguo esclavo de las señoras Mispireta. La fidelidad de estos negros a sus amos de los que la libertad dependía los había desprendido se puso de manifiesto en los angustiosos días de la ocupación chilena, en los que las casas estuvieron cerradas a piedra y lodo como señal de estricto luto y sus moradores no salieron de ellas, mientras no se retiró el último invasor. Devoto tuvo que ser por fuerza de su color el coronel Pachas, valiente partidario de iglesias en la guerra civil que acaba de terminar y en la que encontró su muerte, Apenas desaparecido ya comienza la leyenda a tejer sus velos en rededor de la azarosa vida del moreno coronel…
-“Ya vienen los montoneros
-Que en Lima quieren entrar
-Y aquí está el valiente Pachas
-Que los hará recular”.
-La tranquila vida de Nazarenas se ve turbada un tanto en las mañanas por la concurrencia de gritones chinos y negras cocineras de “casas grandes” al vecino Mercado de la Aurora.
-En las tardes vienen al monasterio con mayor insistencia en el mes de octubre a “cambiar” o “lismonear” (éstas son palabras escrupulosas que quieren expresar la no existencia del negocio en el expendio de objetos religiosos) escapularios y cordones del Señor de los Milagros. Abunda la concurrencia igualmente, cuando hay locutorio y los familiares de las monjitas acuden a conversar con aquí fenómeno de la asociación de ideas quiere cantar y sólo mal entona, afición de todos los que están en su estado, esta coplita referente a la negrería: 
-“Que bonita es una negra
-Cuando pare dos negritos:
-Uno se prende´ e la teta
-Y el otro se mata a gritos”.
-A las once en punto de la noche don Juan Solari, cierra cuidadosamente su baratillo “El Mesías de los Pobres”, abierto desde la madrugada, y la plazuela duerme en paz…
 </t>
   </si>
   <si>
@@ -1518,6 +1434,90 @@
 LA PLAZA DE ARMAS fue remodelada en 1895, 1901, de 1942 a 1945 (cuando se rehicieron los portales en estilo neocolonial) y 1997. El nombre más tradicional de “Plaza Mayor” fue reinstaurado en ese año, para ser abandonado en tiempo más recientes. La plazuela de San Pedro se ha mantenido, aunque alterada por la edificaciones modernas construidas en su entorno. La Plazuela de Belén desapareció en los años veinte, cuando se trazó la avenida Uruguay. La plazuela de Santa Ana se convirtió en plaza Italia en 1912, cuando se colocó allí el monumento a Antonio Raimondi. Fue remodelada en 1995. La plazuela de Santa Catalina se ha mantenido, con sus elementos arquitectónicos principales (el monasterio y el cuartel). Las plazuelas vecinas de San Juan de Dios y la Micheo desaparecieron en 1921, para hacer sitio a la moderna plaza San Martín. La plazuela de la Salud mantiene lo esencial de su trazo en medio de un entorno arquitectónico totalmente cambiado. Desde 1959 se denomina plazuela Elguera, en homenaje a Federico Elguera (I860I928), escritor costumbrista y Alcalde de Lima. Desde 1926, la plazuela de la Recoleta se denomina plaza Francia, por  el monumento a la libertad, alegórico de la nación francesa, que fue colocado ese año. En ella, hoy se encuentran la iglesia el antiguo Colegio de la Recoleta y el Hospicio Manrique. La plazuela de San Carlos se conserva, aunque integrada al Parque Universitario en la última remodelación de este, en 2003. A partir de 1924, cuando la iglesia se convirtió en Panteón de los Próceres el nombre de San Carlos dejó de usarse. La plazuela y la iglesia de Desamparados desaparecieron en 1938, para dar paso a la construcción del jardín posterior del nuevo Palacio de Gobierno. La plazuela de San Lázaro se conserva, aunque varios de los edificios de su entorno están muy deteriorados. La plazuela de Monserrate fue remodelada de la década de 1970. La plazuela de las Nazarenas fue remodelada en los años ochenta del pasado siglo. En esa época se le incorporó la capilla anexa del Señor de la Reconciliación, La planta de la iglesia de Santa Clara se modificó en 1920. Tanto la iglesia como la plazuela se conservan en medio de un entorno arquitectónico sumamente deteriorado . La plazuela de la Cabezas sobrevive, aunque muy reformada. La Alameda de los Descalzos mantiene básicamente su mismo aspecto desde 1855, cuando fue remodelada por el gobierno de Ramón Castilla. El callejón de Petateros se reformó a comienzos del siglo XX, cuando paso a denominarse pasaje 28 de julio. Luego, fue nuevamente remodelado y bautizado pasaje Olaya. La plazuela de Guadalupe ha subsistido, aunque parcialmente, delante de la clínica Maison de Santé (la antigua Clínica Francesa). La plazuela de San Francisco se conserva con pequeñas remodelaciones efectuadas a lo largo del siglo XX. Sus principales componentes arquitectónicos han llegado al presente. 
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">LA PLAZUELA de los  DESAMPARADOS
+LA PLAZUELA DE LOS DESAMPARADOS no es una verdadera plazuela sino más bien un ensanchamiento del puente de piedra que comienza en ella. Siguiendo la costumbre la designaremos como tal, pero en riesgo de perder nuestra veracidad y oponiéndonos a la opinión general que tanto la alaba, quizá si por su proximidad a Palacio debemos declarar que la plazuela está ahora de “capa caída”. Del arco de triunfo  que la adornaba en años anteriores no queda ni vestigios pues un incendio los destruyó totalmente en la madrugada del domingo 10 de abril de 1879 a los cuatro días de la declaratoria de guerra a Chile. Una tradición popular trasmite de boca en boca, tradición que no podríamos considerar exacta hasta tanto que se presentara una prueba cierta de su veracidad, de que el incendiario fue un chileno Cornelio Granados casado con una hija del país.
+El Puente de piedra sobre el rio Rímac construido bajo el gobierno del celoso virrey don Juan de Mendoza y Luna, Marqués de Montesclaros es una de mejores obras de nuestros alarifes coloniales. Los limeños al hablar de él no sin jactancia consignan los miles de claras de huevo que se emplearon en confeccionar la argamasa con que se unieron sus piedras (sin añadirnos jamás qué fin corrieron las respectivas yemas). Suelen visitar los poyos del puente que resultan cómodos pero fríos asientos vendedores ocasionales de toda clase de objetos y golosinas, desde “rosquetes” y “trompadas” (que las hacen muy buenas la alemana Sofía Mohring y la “negra americana”) hasta libros viejos. Ayer mismo encontramos en uno de los poyos dos muchachos que provistos de un enorme “balay”, de aquellos que usan las planchadoras, lleno de libros forrados en pergamino los ofrecían “a un real al escoger”. A pesar de su baratura no encontraban compradores, nos acercamos a él y nos entretuvimos largo rato en examinarlos: libros místicos en su mayoría, varios escritos en latín, todos llevaban un sello de goma que decía “Gris y Zavala Compra y venta de libros Calle de San Pedro n.82 A.) y algunos además por un segundo sello que tenían indicaban su procedencia de la Biblioteca Nacional destruida innoblemente por el ejército chileno de ocupación. Escogimos dos viejos y maltrechos volúmenes, dimos una peseta y cargamos a casa con ellos:
+“Compendio Historial  de la Vida la Gloriosa S Rita  de Cassia Monja en el Obervantisimo Monas terio de S. María Magdalena de Cassia del Orden de NPS Agustín. Escríbelo  El MR PM Fr Mathias  Lisperguer y solis calificador del Santo Oficio. Maestro en Artes y Doctor Theologo. En la Real Universidad de S. Marcos, Catedrático (que fue)  de Prima de Sagrada Theología en la Univesidad Pontificia de S. Idelfonso Regente General  de los Estudios, y Coronista de esta Provincia de el Orden de NP S Agustín  Dedícalo a NMRP Fr Pedro de  Soto Doctor Theologo en la  Real Universidad Prior Provincial de esta Provincia del Orden de NP San Agustín  Lleva al fin del novenario de la Santa  Con licencia en Lima Por Joseph de Contreras, impresor Real del S Oficio y de la  S Cruzada Año de 1699” y “Varios eloquentes  libros  recogidos en uno  Escriviéronlos diferentes autores  y los intitularon:  Retrato Político del señor Rey don Alfonso el VII El perfecto Privado. Advertencias Políticas y Morales Jacinto Polo de Medina, Gobierno Moral a Lelio Don Joseph Rubio Gobierno Moral a Fabio El RPM fray Juan Bautista Aguilar Gobierno Moral a Lauro. Heráclito defendido Filósofo  que lloraba siempre los sucesos  del mundo Ponen en el fin del libro la Autoridades que se citan en el Retrato Político, y  en el del Prefecto Privado y de los autores que se notan en las advertencias Políticas y Morales  Con licencia: en Valencia Año 1711”.
+Son tan diferentes estos viejos libros de los actuales, tanto como libros mismos cuanto por su contenido, que no hemos resistido a la tentación de copiar sus portadas, para que cualquiera que lea esta obra saque las consecuencias del caso, poniéndolas sobre su mesa al lado verbi gratia de unos Aletazos del Murciélago o un diccionario de Peruanismos tan parcos en titulo como aquellos generosos.
+Una de las atracciones de la plazuela, al memos para los chicos de la vecindad y aún para los grandes “noveleros”, es el “pigmeo” hojalatero  que en nuestra miscegenación étnica no pasaría de un negrito colorado y que se dedica a vender “monitoras”, jarros y anafes, “olletas”, “chocolateras” y “porongos”, faroles (para los callejones y champucerías), alcuzas y candiles, tacitas para ron y otros objetos que fabrica en su tenducho elevado sobre las ruinas del edificio anejo al arco y que desapareció con él. El pigmeo que no mide una vara de alto retaco, gordito y feo vive en la calle  de la Manteras y cuando pelea con su mujer  una mujer que no merece el muy zamarro, pues es blanca y agraciada y quiere vapulearla, se sube a la mesa de comer y desde allí brinca sobre ella para salirse con su gusto. Diversas veces por haber cometido esa fechoría ha tenido que dormir en la comisaría del cuartel quinto.
+Cerca de este tenducho se ha instalado en otro igual, un cigarrero fabricante de Corbatones” viejo canoso que todo el día “tuerce” con uña de lata ayudado por su hija y manda a vender los cigarros en los poyos del puente en paquetes armados con cintas de “totora”, estos cigarrillos envueltos en papel blanco de San Lorenzo son la delicia de las viejas fumadoras muy abundantes en Lima. El humo del tabaco es un consuelo para las ancianas pobres y olvidadas por su parentela… Nuestro buen viejo cigarrero fabrica también los puros de a centavo chico y los llamados de Cartagena, en los cuales, según puede observarse fácilmente, emplea mas engrudo que hojas de tabaco..
+En la bajada sentado sobre el murito de piedra de la vereda se puede ver al frutero brujo ño José Berna zambo, alto, delgado que tiene la asombrosa peculiaridad de vender frutas que no se producen en la estación. De ahí que se le atribuyan horribles pactos con el enemigo (¡vade retro!) y también de ahí proviene que sea tan favorecido por las antojadizas preñadas de meses mayores que se les antoja comer paltas cuando el tiempo es de chirimoyas… Los muñecos de trapo que hace su mujer ña Joaquina verdaderas caricaturas sociales de la dama aristocrática, la hermana de caridad, la niña de primera comunión, el clérigo, la tamalera, el bizcochero, etc., dignas por su fidelidad de copia de un museo de trajes los coloca Berna en pintoresca promiscuidad con las frutas y las pastillas de oropel…
+Pero nos estamos apartando mucho de la plazuela, subamos al puente para volver a ella, en donde levanta sus ruinosas torres la iglesia de N. S. de los Desamparados y San Francisco de Borja, construida magníficamente merced a la protección que dispensó a su fábrica el ascético Conde de Lemus, quien la inauguró con pompa digna de su rango apadrinando la ceremonia que bendijo don  Cristóbal Quirós junto a la iglesia se alza la preciosa portadita el callejón que conducía a las aulas de la latinidad que sostuvieron los jesuitas antes de su expulsión y en la que instruían gratuitamente a quinientos niños, desde el Christus hasta la retórica Latina y la Historia de las Indias. 
+Instituciones de fin tan piadoso y fundadas por ascetas de la moral rígida como Lemos que respetuoso de la investidura episcopal cuando saludaba al Ilustrísimo Villagómez se ponía casi de hinojos para besarle la mano y el P. Castillo jesuita reputado como siervo de Dios debían tener por irónico contraste de las cosas al correr de los años, de vecino al café Maximiliano frecuentado en las horas nocturnas por gente “non sancta”. Los aires del puente en que resonaban motetes, villancicos, y las graves notas del severo canto llano, vibran ahora con los lascivos sones de la marinera, las alegrías del valse vienés de Strauss o el limeño de Amézaga y las melodías de la canción de moda.
+El salón de cena Maximiliano no cierra nunca sus puertas como que tiene “licencia para amanecer”, se reúne en él todo el pintoresco mundo de la hampa limeña: los badulaques y calaveras de la ciudad, las mujeres malas, sus amantes y toda gente “lechucera” (de media noche) poco conocida de la gente seria y formal. Cuando se acaba la función del teatro los hijos de familia “decentes” que ya tienen llave de puerta de calle y comienzan por esa razón a malograrse trasnochando, aparecen alegremente en el café. Pasada la mampara se extiende un gran salón de mesitas de mármol hechizo con cuatro silletas de esterilla alrededor de cada una. Al fondo un mostrador con vidrieras que exponen a la vista de los concurrentes el “jamón del país” para las butifarras y una serie de fuentes de loza blanca que contienen toda clase de viandas frías y a los lados de la vidriera, en una especie de guardia, dos enormes frascos de “ante con ante” se llenan y vacían varias veces en el transcurso de la noche… Las salas de billar están más al interior y en una suerte de piso alto cuyas ventanas dan sobre la rampa de madera que del puente baja a la Estación de Desamparados. A las once de la noche principia el juego del plato: el de dueño de casa lo trae triunfalmente y lo coloca sobre el verde paño, en el centro exacto de la mesa de billar. Cada jugador se apunta con una peseta, que lo va llenando, y el juego comienza. Hay que hacer una docena de carambolas sin que ninguna de las tres bolas toque el palto, las carambolas deben ser hechas de una en una “y eso” con el mayor cuidado pues un toque al plato hace perder la bolada, el mozo atento a cada vaciada el plato se acerca al ganador para cobrarle el tanto por ciento de lo ganado para la casa.
+Mientras dentro los jugadores de billar se entregan a su favorita distracción, afuera las mesas se van ocupando lentamente. “La Venadito”, “La Pericota”, “La Mono con polca”, “La Golondrina”, La Pacapaca” todo un jardín zoológico    en apodos acompañadas de otras mujeres de alias tan raros como “La Muladar”, “La Torre de Malakoff”, “La Muerte del burro”, “La Aceituna de botija”, “La aprendiz de maromero” y las demás cuyos nombres sirven mucho para las versadas de nuestros listines de toros, charlan y beben animadamente en unión de sus ocasionales amigos. Es la hora del piano, el maestro Cadenas y el maestro Pepito Bonifaz hacen su aparición  la cual es siempre recibida con aplausos por la concurrencia traen un inmenso repertorio y tienen la virtud de satisfacer a todos los gustos. ¡Maestro un valse! Y allá van “Tuyo es mi corazón”, “Embriaguez de amor” o “Vino, mujer y canto”, ¡Una polca maestro! y Bonifaz sonriente ataca “El Huáscar”, “El amor de las limeñas” o “La hija de madame Angot”. ¡Mazurca queremos! “Suspiros de un hambriento”, “Una dulce mirada”, ¡Danzas! “La Bellísima Peruana”, “La Argolla”, “La civilista”, “Porque tengo la cara negra” van haciendo sentir sus melodías en medio de la noche. Es entonces cuando entra en el salón el chinito manicero Antonio.
+Antonio, como casi todos los chinos que hoy viven en el Perú, es protagonista de una trágica historia: “Contratado” por mendaces enganchadores, y en realidad solo plagiado, se le embarcó violentamente con otros mucho paisanos suyos a bordo de un buque incapaz de contener tantos pasajeros y fue durante varios meses de navegación espectador y victima de los abusivos y crueles castigo que se infligieron a sus compañeros, defraudados en el noble y heroico intento de preferir la muerte a una esclavitud hipócritamente simulada con ficciones legales, más no por ello menos humillante y bárbara. Llegó el velero al Callo con su cargamento diezmado por el suicidio, el azote y el hambre, y contra todas las leyes de nuestro país el desgraciado chino fue vendido para servir de peón en una hacienda de la costa. Allí, bajo el látigo de algún desalmado zambo caporal furiosamente poseído del deseo de vengar dobladamente en los inocentes coolies los agravios que recibieron en idénticas circunstancias sus abuelos chalas o mandingas, durmiendo en inmundos galpones y aherrojado por la menor falta siguió viviendo sus penalidades hasta el día día de liberación en que se cumplieron los ocho o más años de su ignominiosa contrata. Después perdió la vista de sus ojos, de esos ojos que habían contemplado hasta donde llegaron la codicia de los hombres aliada con su crueldad, y el desprecio a su raza inteligente y laboriosa de parte de los que titulándose cristianaos olvidaron las puras enseñanzas del Divino Maestro: “Amaos los unos a los otros”… Cuántas veces allá, en el mísero cuartucho de callejón por la calle de Minas cercana al tajamar, de horribles leyendas, que le sirve de habitación meditará su vida y pasarán por su calenturienta imaginación el barracón antro de vicios en el que fuera enganchado, la penosa travesía, los negros días de la hacienda y los más negros aún de su ceguera de hoy  victima eterna de los hombres ha tenido que cambiar el costalito en que llevaba el maní tostado caliente por una lata para librarse de inmisericorde rapiña que quiere arrebatarle su infinitésimo capital cinco o seis reales con lo que no gana, quizá ni otros tantos para poder vivir cortándole el saquito sin que lo sienta para que la caliente mercancía se vaya escurriendo de su receptáculo… En el salón Maximiliano, no encuentra, felizmente, Antonio la hostilidad de los mataperros de las callejas de abajo el puente y el contenido de su lata se vacía, llenándose en cambio sus bolsillos de calderilla. No falta nunca tampoco un compasivo trasnochador que le invita una buena taza de café. Al salir del salón cerca de la puerta le canta un concurrente
+“Oye chino manicero
+Dame medio de maní,
+Que mañana te lo pago
+Cuando pases por aquí”.
+La vida nocturna de la plazuela queda descrita con el café “Maximiliano” en donde se resume toda ella. En cuanto a la diurna la primera manifestación de actividad se encarga de darla el clérigo capellán que oficia una misa en la iglesia—evocadora constante de los beatíficos días en los que gobernaba estas tierras Lemos el devoto, más tarde por la rampa de la estación trafican los pasajeros del Callao: oficinistas de la aduana cuidadosos del buen vestir como de la caligrafía inglesa con que escriben las notas oficiales y las pólizas de despacho, bañistas hombres y mujeres que van a tonificarse en las aguas de nuestro primer puerto “que tiene mucho fierro”, comerciantes y de vez en cuando algún “vaquero” de rango que puede pagar el pasaje. En las horas de almuerzo “La Gran Tijera Incansable” sastrería del amigo Paganini cercana a la calle de Polvos Azules la calle de los bauleros, está siempre animada con la concurrencia de alegres jóvenes “futres” que vienen a probare la ropa mandada a hacer. Las niñas que regresan de comprar el descuido y con cuidado voltean a mirarles.
+La llegada a la vecina estación del trasandino de la fría región chiclina cambia completamente el aspecto de nuestra plazuela: parte del pasaje subiendo por la rampa llena Desamparados de parlanchinas pasajeras que antes de cambiarse la polvorienta ropa del camino van contando sus impresiones de viaje, abrumadas por el peso de las sartas de limas y granadillas que compraron en Surco y San Bartolomé, caseríos serranos esmeraldas entre peñas; negociantes en charqui, huevos y chalona ataviados con lujosos ponchos de vicuña y que traen en las multicolores alforjas obsequios extraños para los compadres limeños y para el tutor encargado de vigilar la educación de sus hijos que están en el “Colegio de la O” de don Pedro Drinot, en el alemán “Instituto de Lima” del doctor Leopoldo Contzen, en el tan conocido francés de “musiu” Garnier en la calle de la Virreina y como nunca falta la nota triste, algunos pobres indios con su “apachico” a la espalda sobre el raído poncho, el sucio ovejón cubriendo la hirsuta pelambre, llegan desde las lejanas Huancavelica y Ayacucho, custodiados por ceñudos gendarmes para su internación en la Penitenciaría Central, en donde van a purgar un abigeato fantástico e irrealizable obra del “tinterillo” bien remunerado por algún enemigo o un crimen, que muchos de ellos no soñaron cometer.
+La otra parte del pasaje, meno numerosa pero mas selecta, prefiere subir por la estación en uno de cuyos salones de primera una esplendida escultura en madera del sueco Young (I) se ofrece a sus miradas profanas incapaces de admirarla conscientemente y van a la esquina de la Pescadería a tomar un coche de plaza que los conduzca a su alojamiento. “Búfalo”, “Pata ´e palo”, “Guacamayo” (todos los cocheros tienen su apodo como sus marchantas las niñas que se divierten) esperan hacer su agosto con la serrana gente… 
+El señor viajero compra un “Comercio” que en ciertas comunes ocasiones resulta La Opinión Nacional con bastantes “Mentiras y Candideces” del cojo Fernando Soria nuestro primer “mozón”(2), o La Tribuna de Luis Faustino Zegers, y los caballos flacos, bajo los chicotazos del auriga, arranca por la Pescadería rumbo al “Hotel Europa” a la “FranciaInglaterra”. Búfalo va cantando:
+“Y esta noche no hay coche
+Porque el cochero Pascual
+Se ha pegado una mona
+Revoleteada por cual”.
+I)Los años y mas que todo la hostilidad del medio han agriado el carácter de Young. No hemos podido hacernos amigos suyos y obtener algunas confidencias. Lo intentamos tocando la puerta de su habitación Inambari, callejuela que por las chacharitas más perdimos el tiempo pues no quiso abrirnos. Apenas si por la ventana de reja logramos verle: pensativo, la gorra negra, encajada hasta la frente, la pipa humeante entre los labios, pasando las manos inquietas a lo largo de su blanca barba. Young se ha dedicado a la escultura de madera. Obras suyas son el león el café San Carlos, en San Juan de Dios, y varias muestras comerciales de las tiendas centrales, entre las cuales recordamos la de la zapatería de su paisano Malmborg en la Merced, muestra que descansa sobre un viejo reloj inglés formando una pareja de interesantes objetos que demuestran el buen gusto de don Nicolás
+2)Fernando Soria debería ser el legitimo sucesor de nuestros más afamados ingenios limeños. Lástima y grande que su incorregible bohemia le impida dedicarse al libro o al teatro. Conoce a fondo nuestro ambiente criollo, maneja bien tanto el español como el “limeño” y tiene inteligencia, valor y corazón. Alto, bien plantado, elegante, de tarro y capa obscura con vueltas rojas, un marapinina con puño de acero toledano adamasquinado entre las manos, se le ve en las tardes charlando en La Opinión Nacional.  
+Su fácil vena se destaca allí en medio del aplauso de sus amigos. La otra tarde alguien leía que en Constantinopla se había realizado una fiesta en la cual el Sultán estuvo un tanto “alegre”  y Soria improvisó enseguida ese delicioso epigrama:
+“Avisan de Turquía que el Sultán
+Se ha “pegado” una turca de Champán 
+¿De Champán?... ¡Quien diría
+Habiendo tantas turcas en Turquía”.
+que puede presentarse como modelo de gracia especialmente limeña y que no se parece en nada a los sarcasmos y crueldades de Arona ni a las crudezas ideológicas y de lenguaje que en veces publica Carlos Germán Amézaga, quien sin duda, por su aspecto oriental, su tez morena y su negrísima barba cerrada se firma FiruzShah. 
+El viaje a pesar de la alegre partida tiene sus intempestivas interrupciones y el canto jocundo de Búfalo cesa a la mitad, pues recordando su querencia los caballos al pasar cerca de uno de los cuatro pilones de la Plaza Mayor, exigen la ración de afrecho y agua que les dan usualmente allí y se niegan a seguir adelante sin recibirla. Hoy se hace de tan hermosos pilones, bien prosaico aprovechamiento. Arrimados a la taza uno o dos costales de afrecho y dos baldes de zinc constituyen todo el capital necesario para un negocio fuera de impuestos y contribuciones de patentes. Despojados de la cabezada y el freno, los pobres animales sumergen la boca en unos bolsones ad hoc que les cuelgan del pescuezo, consumen su medida ración y luego sorben un poco de agua, un relincho de satisfacción da fin al acto y el coche puede continuar. Mientras tal cosa se efectúa los pasajeros reniegan de la tardanza y el negro americano Búfalo suelta sus tacos en puro “gringo” dejando mal a toda la familia del “General Jackson”.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La PLAZUELA de las NAZARENAS
+CADA UNA DE LAS PLAZUELAS LIMEÑAS está caracterizada por alguna de sus sobresalientes cualidades. Asó como San Catalina es populachera, militar y jaranista; la Recoleta, varía y abigarrada; San Carlos, alegre y cómica; San Pedro, comercial, abogadil y leguleya; las Nazarenas es una plazuela eminentemente religiosa y monástica.
+La modesta plazuela de las Nazarenas está rodeada de edificios cuyas fábricas no llaman la atención y aún la misma iglesia no tiene valor arquitectónico alguno. Su celebridad le viene de poseer el más preciado tesoro religioso de nuestra ciudad: la venerada imagen de nuestro amo y señor de los Milagros.
+El monasterio en sus principios beaterio de nazarenas carmelitas descalzas de San Joaquín, se inauguró a principios del siglo XVII sacando, para el efecto, a tres religiosas el convento del Carmen, encargadas de ocupar las principales autoridades de la nueva comunidad, que hasta hoy cuida de fomentar el culto del Santo Cristo de los Milagros, cuya nadie ignora, motivo por el cual nos ahorramos de referirla. 
+La portería del monasterio, situada frente al pilón de cantarinas y verdosas aguas, está adornado por varios cuadros al óleo, entre los que se destaca el retrato de la guayaquileña sor Antonia Lucía el Espiritu Santo, fundadora del instituto nazareno, que se presenta con amplio hábito morado, cuerdas en el cuello y la cintura, ceñida la cabeza con una corona de espinas y llevando en sus manos una cruz, vestimenta aquella que aún hoy llevan las buenas monjitas de uno de los conventos más estrictos que hay en Lima. El templo que es de forma elíptica posee un espacioso vestíbulo, buenos retablos y soberbios enrejados en los coros bajos. La imagen del crucificado está en el altar mayor inmejorablemente conservada a despecho de los años y el observador que la mire de cerca puede comprobarlo.
+Detrás de la iglesia se levanta el monasterio, cuyo interior apacible y recogido no es dado ver a los profanos, excepción hecha del médico y el confesor que penetran en él cuando alguna religiosa se halla cerca del trance supremo. Amplios corredores perfumados por madreselvas, aromos y jazmineros, asoleados patios en los cuales crecen añosos arboles frutales, cerezos, lúcumos y chirimoyos, sencillísimas celdas, amobladas por una tarima y una mesa en la que descansan una calavera, una disciplina y varios devotos libros, que reciben luz del día a través de ventanas de talladas columnitas de madera, y dos capillas interiores para los ejercicios espirituales constituyen el recinto en donde varias santas mujeres, ancianas en su mayoría, esperan su liberación de la cárcel de la carne. En ese ambiente propicio a la meditación y al rezo se han perfeccionado muchas almas hasta alcanzar la máxima virtud de la santidad. Sor Antonia Lucía del Espiritu Santo, la madre providencia y otras más, son conocidas por siervas de Dios. María de los Santos el Santísimo Sacramento alias Zambrano pasó parte de su vida en éxtasis y contemplaciones en este convento, vida que su confesor el fraile mercedario Fray Pedro Loayza narró brevemente en un pequeño manuscrito, que constituye una preciada muestra de nuestra literatura hagiográfica colonial XVII. Difícilmente se encontrará una relación en que se pueda estudiar mejor esas vidas pasadas en deliquio continuo, separadas en todo del siglo mundano en el cual al fin y al cabo alguna como la B. María vivieron y tan diferentes de todas las demás que a su rededor van de la cuna a la tumba…   
+He aquí transcrita íntegramente esa desconocida relación manuscrita:
+“Ave María. Yo Fray Pedro Loayza Religioso del Real y Militar orden de Nuestra Señora de las Mercedes, á mayor gloria de Dios y haliento de las almas, paso á hacer esta breve relación de lo que el Señor se digno obrar en la devota Virgen María de los Santos del Santísimo Sacramento, alías Zambrano, Beata Nazarena y digno que = Habiendo Su Majestad adornado con bellísimas inclinaciones esta alma desde sus primeros años, quiso algún día hacerme el bien de ponerla á mi cuydado:  Para mi feliz desempeño traté de inducirla al exercicio de la vida interior y oración mental. Fue tan exacta y fiel en su práctica , que constituida desde entonces en una oración continua, atrajo sobre sí con ella, como el imán más efectivo todas las bendiciones del Cielo. Se solidó y fundó primeramente en una humildad tan entrañable y profunda, que á pesar de su inocencia, de sus virtudes, de las luces, y enseñanzas continuas, con que enriqueció y ennobleció al Altísimo, se tubo siempre por muy mala, muy inferior a todas y sumamente necesitada de recibir documento (¿sacramentos?) De cualquiera fuese el que fuese con tal cuydado sus buenas obras, y los divinos favores que recibía, que solo el temor de errar y la sencillez columbina, que fue como su divisa, abrían el candado de sus labios con imponderables tormentos: Al paso que era elocuente y prontísima en hablar cuando trataba de acusarse y decir mal de sí, tenía formado de sí tal mal concepto que cuando se le hacía alguna falsa acusación aun contra el testimonio favorable de su buena conciencia, se iba con el pensamiento ageno, y decía sin duda que yo no soy la que me engaño y mi amor propio me ciega”. 
+“Su prudencia y sabiduría eran tales que desde que logró aprehenderlas del Divino Maestro en las continuas comunicaciones y repetidas lecciones cuydó de obrar siempre según ellas habiendo sido su mayor prudencia y sabiduría  el haber ocultado que las tenía.
+“Su justicia y rectitud están más que manifiestas en haberse dado toda enteramente al Señor buscando sin intermisión su gloria en haber escogido la humillación y abatimiento para sí, y la gloria, honra y estimación para sus próximos.
+“Su fortaleza, paciencia y templanza, pedían ciertamente más extensión que la de este pequeño apunte, por esto solo diré que esta caña débil en lo visible, fue un cedro el Líbano en lo invisible, pues supo tenerse firme en medio de la ceguedades, obscuridades, repugnancias, amarguras, tedios y desamparados de espiritu: A todo esto solo oponía la paciencia, la humildad y la mayor felicidad, asida a solo la fe en la obscuridad de la noche, que duró casi todo el tiempo de su vida. Las tentaciones en toda la materia, principalmente en la de la pureza, fueron mas que terribles: pero solo sirvieron de dar nuevo realce a sus virtudes y llenarlas de coronas. Parece que las constante y pasifica firmeza en tales penas de espiritu denotan bien su fortaleza y paciencia; mas tampoco dejan de indicarla sobradamente sus padecimientos corporales, así de enfermedades, como de la penitencia. Las enfermedades que casi nunca la desampararon, fueron varias, y gravísimas, sangre por la boca, calenturas continuas, pecho, pulmón, cabeza, estómago, todo en ella estaba dañado haciéndole particular tormento. Cualesquiera de estos males por sí solo habría abrumado enteramente a otra alma menos fuerte y paciente, pero en ella solo sirvieron para materia de estas virtudes, sin haberse jamás disgustado o exasperado por tenerlas ni por ahijones de su agudeza ni por la prolongación de su duración. 
+“Parece que el divino maestro por otra parte queriendo como evocar el filo de su espada en sangre y maceraciones de esta victima inocente no contento con padecimientos dichos, quiso que ella exercitase la penitencia que por nuestros pecados debíamos: Así aunque siempre por su templanza en la comida y bebida podía decirse que su ayuno era continuo, le ordenó el señor mismo muchas vigilias sobre las de la iglesia universal, mandándole que en tales días ayunase con toda ceveridad. La cantidad de pan era bien corta y la de agua tenía por medida una xicarita pequeña que el mismo Señor le señalo siendo que su sed era qual se deja entender por las enfermedades dichas. El régimen que le impuso para la cuarentena fue que ayunase un día a pan y agua y otro al traspaso. En los mismos días por expreso mandato de Su Majestad tenía disciplina muy sangrienta, trahía rayos de hoja de lata hasta verter su sangre de sus delicadas plantas, de las cuales plantillas fue preciso hacer varias por haberlas quebrado por el continuo uso, lo que no pudo haber sido sin dejarle las plantas las plantas de los pies llagadas. Rajo también por muchos tiempos una túnica áspera de lana a raíz de las carnes como también los cilicios, todo por el Señor el qual parece renovó el milagro de los quatro Hebreos, Daniel, Azarias, Misael y Ananias, en esta su sierva poniéndola rosagante y de mejor semblante, en los días que sobre sus enfermedades, y continuos desvelos, se añadían todas las dichas maceraciones.
+“En medio de estas espinas era su alma como una rosa fragante de amor y blanca azucena de pureza; pues mantuvo intacta su virginidad habiéndose consagrado al Señor en voto de perpetua castidad, firmando este con la sangre de sus venas. Trayendo ese dichoso papel colgado al cuello en un relicario, como feliz instrumento de los castos desposorios que en una comunión celebró con el Señor llamándola este desde entonces su amada Esposa, y encargándola que les diese el titulo de padre, y Esposo cuando en sus trabajos quisiese obligarle á que la oyese.
+“La que es Virgen por excelencia y la Madre de la Pureza es decir la Santísima Virgen, mi Señora le dio repetidas veces á gustar el néctar dulcísimo de sus castísimos pechos, nombrándola también su amada hija. Los Angeles Santos, y en una palabra todos los cortesanos del cielo la consolaron muchas veces, mostrándosele muy propicios, en particular ya se ve las Santas y Santos mas conocidos, los Patriarcas de las Religiones la acariciaban como á muy querida del Señor, varios Santos otras veces, y entre ellos mas especialmente el Patriarca San Juan de Dios, y San Ramón Nonnato la traxeron en la calidad de obsequio por el amor que les tenía una corona de espinas que le causó cruelísimos dolores de caveza.
+“ Asi, ennoblecida esta vella alma alma logró en una Pascua de Pentecóstes recibir al Espiritu Santo en figura de paloma: en otro tales días al postrarse á los pies de nuestro dulce Redentor la tomó en sus brazos, levantándola, y dándola á beber de su Sacratisimo costado; algunas veces no contento con agasajarla él la mostró á su Eterno Padre, el qual la miraba mostrando una gran complacencia. Su pasión dominante fue el amor a Nuestro Señor Sacramentado; sin duda para refrigerar el ardor que le causaba este amor la mandó el mismo Señor muchos años antes de su muerte, que en cada día hiciese ciento cincuenta comuniones espirituales.
+“Al año siguiente á este orden le añadió, otras cinquenta y como iba en aumento, en los subcesivos, era su vida casi una comunión incesante, muchas veces recibió de manos de los Santos, y la del mismo Señor, principalmente después que sus enfermedades la embarazaron la salida á la iglesia privándola de la Comunión Sacramental; mas como el Señor es la liberalidad, y magnificencia misma, la recompensaba esta privación ya del modo dicho, ya dignándose el mismo en la imagen de un niño que ella veneraba en su habitación y e quien recibió innumerables favores, celebrar para su consuelo muy frecuentemente el Santo Sacrificio de la Misa que nunca dexó de oir aun estando en su cas enferma yendo a los Templos en Espiritu y hecha industriosa aveja y entrando en los sagrarios, como en otras tantas colmenas á labrar la miel de su devoción, que siempre iba en aumento.
+“De esto y de todo lo dicho no podían menos que encenderse en su corazón, unas ancias tales de morir  y salir de la estrecha cárcel del cuerpo que para contenerlas, y moderarlas, necesitaba apelar a su conformidad, que juntamente con la obediencia fueron para ella virtudes muy amadas. Trabajó tanto en efecto a fin de extinguir aun esta Santa pasión, que consiguió aun antes de su muerte, ponerse en una tal conformidad e indiferencia que desnudándose del deseo de morir que le inspiraba su amor, triunfó el amor de si mismo haciendo que en adelante todo su querer fuese no tener ya propio querer aunque en verdad que cuando los Médicos la mandaron Sacramentar no pudo por ma que quiso ocultar el regocijo que le causaba la proximidad de la dichosa hora que tanto había anhelado; pues entonces tuvieron su gran ver la feé viva, la esperanza firme, la caridad ardiente con que el Señor la adornó avivándole las muchas y encarecidas promesas que le hizo enquanto a la felicidad de su tráncito después haberla antes honrado con mucha comunicaciones, favores, manifestaciones de sus secretos como el estado de varias Almas del Purgatorio á quienes alivio mucho, ya para la total donación que les hizo de quanto podía tener de mérito ya rociarlas con la sangre del Señor en un devotísimo exercicio que acostumbraba.   
+“Omito otras muchas cosas por lo inhábil que me tienen mis enfermedades para poder extenderme mas, y concluyo protestando que mi intento en esta relación no es prevenir el juicio de la Santa Iglesia según los decretos Apostólicos del Señor Urbano Octavo, y de la Santa inquisición de Roma y que quanto he dicho solo merece un ascenso de feé puramente humana.
+“Baxo la misma protestación añado habiendo aumentado esta devota Virgen su fervor en los últimos días de su vida me edificaba demasiado con la firmeza de su confiadísima esperanza  que quanto a su salud eterna, hasta el punto de llegar á decir, que si se le apareciera un Ángel  y tratara de intimidarla, de ningún modo vacilaría, pues la bondad de su creador y la sangre de su Redentor le tenían firme á toda prueba. En los siguientes días se veía muy frecuentemente escoltada de Ángeles y Cortesanos del cielo que no cesaban de dar creces a su cristiana esperanza. Asi estuvo hata el día veinte y dos de Diciembre del presente año en a qual puesta en gran debilidad hablaba poco, aunque interiormente, obraba mucho y decia de quando en quando. Nada se puede dexar por hacer para esta hora porque aun la costumbre anticuada de obrar bien casi no tiene lugar en este lance. Y nada haría si el Señor no lo hiciera todo en mi, y si mi Ángel no supliera mis defectos. Otras veces, ay de aquel, que dilata su confesión para esta hora principalmente si no tiene muy aligerada su conciencia, pues si lo que antes se hacia bien no se puede hacer en este lance, cómo saldrá lo que nunca bien se hizo? Luego muy a menudo decía Gracias te doy ó Dios mío, de mi corazón porque muy de antemano me diste lúz, gracia y proporción, para participar quanto necesito en esta hora. Pero oh? Ya esta hora tarda mi buen Jesús. En estos efectos y otros semejantes se matubo hasta la noche en la qual teniendo presente á un Señor Eclesiástico hermano suyo, aunque con el mas profundo rendimiento le habló sobre la alteza de su estado, y los cargos de su parroquial Ministerio con más palabras dignas de gravarse  en un mármol, y para no faltar a su humanidad amadísima concluyó diciendo. Que no ocupaba otro sentimiento fuera de no haber sido fiel en el servicio de su dueño. El día siguiente yendo su debilidad en aumento; pero sin cesar en su interior exercicio volviéndose á una hermana de espiritu le dixo Oh? Ahora es tiempo de toda la fortaleza y recogiéndose en si misma escuchaba atenta con la mayor modestia, cerraba los ojos entre unas tranquilas agonías, y perceverando de la manera dicha con su caveza dulcemente inclinaba al lado del Sacerdote y Crucifijo sin movimiento alguno extraña entregó su alma al Señor á cerca de las dos de la tarde del día veinte y tres de diciembre de mil siete cientos noventa y cinco á los cuarenta y un años, un mes y veinte días de su edad, acaso como lo esperamos de la vondad del Señor para empezar á celebrar en el Cielo la Natividad de su amado Niño desde las vísperas de la vigilia. Antes y después de su muerte estuvo rodeada de seis o siete sacerdotes y muchas Personas seculares, y con los ojos llenos de lagrimas tal vez con una santa enbidia de no acompañarla con iguales señales oraban, y le venían de ito contra el horror natural de los Moribundos y Muertos.
+Dios sea bendito.
+Fr. Pedro Loayza Mercedario
+Acojamos con la fe humana que pedía el autor Padre Loayza esta sencilla relación llena de prodigios y pasemos a la vida misma de nuestra religiosa plazuela que por contraste, muy humano también, se halla cerca de dos lugares propensos al mal: un teatro y cancha de gallos. Veamos algunos de sus tipos populares:
+En la esquina formada por las calles de Nazarenas y Pileta de Nazarenas s encuentra la peluquería flebótomo “Papa Rellena”, quien ha adquirido en buna ley tal apodo a causa de su excesiva gordura que le ha dado aquella redondez golloría criolla. “Papa Rellena” como su rival de la calle de la Moneda es uno de los pocos barberos antiguos que todavía sacan dientes y muelas, afeitan las barbas y sangran a los vecinos de esta ciudad. Si alguno le ocupa aun en practicar sangrías y en aplicar sanguijuelas y ventosas sajantes, métodos curanderiles  contemporáneos d aquí, a pesar de todo hábil cirujano, “doctor” Santitos que: 
+“Recentado está
+Emplasto de malvas
+Con unto sin sal”
+será, sin duda alguna, el doctor Palma, a quien acabamos de ver atravesar la Plaza de Armas, rumbo a su domicilio de la calle de Zamudio, caballero en un escuálido jamelgo digna imagen del celebérrimo Rocinante llevando colgada en la parte delantera de la montura una portaviandas de loza blanca que, seguramente, contiene su almuerzo y en la traerá dos o tres tercios de alfalfa que forman la alimentación diaria del caballo. A tal flebótomo tal cirujano…
+“Papa Rellena” tiene en el lugar principal del estacionamiento como él llama hiperbólicamente a su tenducho colgada, la consabida oleografía del individuo que se afeita solo y del que se hace afeitar por un barbero, compañera de esa otra que representa a los comerciantes, uno que vendió al crédito y otro al contado. Su redonda cara de luna llena se anima con una sonrisa de satisfacción cada vez que un parroquiano hace referencia al cuadro, dándole así ocasión para ponderar las excelencias de su oficio: “Si señor, el barbero diplomado le deja a usted la cara limpia, sin pelo, sin un tajo, fresca y empolvada con “Flores de Plata”, legítimos y olorosos polvos, si señor. Si usted decide afeitarse, en su casa, con una navaja, mal asentada, desde luego, pues usted no tendrá piedra ni práctica en hacerlo, la cara le quedará como un mapamundi”. Tal es el sermón que se tiene aprendido de memoria para asombro del paciente que acude a dejarse sus diez “centavazos” por afeitada.
+ De igual manera que la Salud es la plazuela que en nuestra colonial ciudad de los Reyes, ha visto y oido toser más y mejor, las Nazarenas se lleva la supremacía en haber visto y olido el mayor número de negros, negras y negrillos, amén de las pintorescas y complicadas castas de mulatos, zambos cuarterones, quinterones, chinos, rechinos, saltaatrás, tente en el aire y zambohigos, producto de los innumerables cruces que con blancos e indios han tenido los primitivos chalas, mandingas, angolas, y mozambiques traídos desde la lejana África “alma en boca, costal de huesos, a usanza de feria” para servir los intereses a veces sin nombre de la agricultura nacional. La máxima devoción al Señor de los Milagros ha reunido en la plazuela y en la iglesia de las Nazarenas a todos los morenos y pardos e Lima y sus aledaños, más todos aquellos que desde Mala y Cañete, han podido obtener de sus amos dinero y permiso para hacerlo. Venida la libertad y con menos obstáculos la reunión se ha efectuado con más ardor… ¿A cuántas procesiones de Nuestro Amo y Señor de los Milagros asistirían aquellos negros cuyas vidas apenas recuerdan algunos de nuestros contemporáneos?
+La raza negra no ha tenido entre nosotros su poeta ni su pintor que trasladen al campo de la literatura y al del arte ciertas características esenciales muy dignas de perdurar. En efecto, no es posible olvidar a tantos negros (sin pizca de duda todos ellos devoto del Señor) asiduos visitantes en otra épocas de nuestra plazuelita:
+Los dos Médicos Utrilla Perote y Perotito que a principios de siglo XVIII lucían por todo Lima sus grandes sortijas y su escaso saber, antecesores de los célebres “doctores” Ramoncito y Román, menos prietos, pero no menos palangana que ellos.
+Los guaragüeros y quimbosos zambos amansadores de potros al servicio, antes, de los orgullosos nobles coloniales, y ahora, al de los propietarios de las haciendas costeñas.
+ Los terribles bandoleros que en la Tablada de Lurín y en Piedras gordas y hasta cerca de las murallas constituían el espanto de los honrados viajeros, tales como el negro León, que siendo esclavo comenzó su agitada carrera al dar muerte a su amo, y consumado este acto huyó dedicándose por varios años al robo en la entera provincia de Lima. Tal era su atrevimiento y arrojo que, mientras su cabeza era puesta el precio de dos mil pesos, entraba a dormir en Lima todas las noches. Viéndose la inutilidad de la oferta se dio un bando por el que se ofrecía mil pesos al bandolero de su cuadrilla que le diera muerte, quedando también libre de toda persecución. Un compañero suyo como diría el mismo por “más señas” compadre espiritual lo estranguló o degolló, según otras versiones, y su cadáver con el fin de escarmentar fue expuesto al público durante tres días en el atrio de la iglesia Catedral. No le iba en zaga José Rayo, héroe de una vida no menos curiosa y accidentada. Por los servicios prestados a nuestros caudillos políticos y presidentes llegó a ser teniente de una “partida montada de campo” policía rural y encargado de esta de manera perseguir a sus antiguos compañeros de robos y asesinatos. Siempre que lograba coger a alguno de éstos le prometía la libertad en cambio de que le descubriera  el sitio en donde se hallaban ocultos los tesoros robados y cuando el iluso bandido aceptaba y descubría el entierro del robo lo fusilaba, sin más trámites, dándole por sepultura el mismo hoyo excavado por su victima. Rayo, vuelto así inflexible castigador del crimen que antes practicaba, era tenido en mucha estima por las autoridades y llamado por éstas su mejor amigo. El negro Roso Arte, bandolero también, adquirió celebridad por fechoría y media que cometió en los campos lo mismo que aquel negro legendario Mogollón quién, según dicen, legó su nombre a la calle en que viviera después de retirarse  la vida privada. La leyenda cuenta que entrar en su casa era entrar a la cueva de Alí Babá y los cuarenta ladrones. Más gentes tan despiadadas y crueles, como estos salteadores no dejaron de sentir en sus almas devoción por alguna imagen del Señor o de la Virgen, expresión de una fe supersticiosa y sin obras, propia de su raza idólatra y fetichista, que quizá hasta los llevó a formar parte de la cofradía del Señor de los Milagros, en la por otra parte figuraban negros de costumbres sanas, muchos de ellos libertos como el simpático y risueño José Luis Cano, antiguo esclavo de las señoras Mispireta. La fidelidad de estos negros a sus amos de los que la libertad dependía los había desprendido se puso de manifiesto en los angustiosos días de la ocupación chilena, en los que las casas estuvieron cerradas a piedra y lodo como señal de estricto luto y sus moradores no salieron de ellas, mientras no se retiró el último invasor. Devoto tuvo que ser por fuerza de su color el coronel Pachas, valiente partidario de iglesias en la guerra civil que acaba de terminar y en la que encontró su muerte, Apenas desaparecido ya comienza la leyenda a tejer sus velos en rededor de la azarosa vida del moreno coronel…
+“Ya vienen los montoneros
+Que en Lima quieren entrar
+Y aquí está el valiente Pachas
+Que los hará recular”.
+La tranquila vida de Nazarenas se ve turbada un tanto en las mañanas por la concurrencia de gritones chinos y negras cocineras de “casas grandes” al vecino Mercado de la Aurora.
+En las tardes vienen al monasterio con mayor insistencia en el mes de octubre a “cambiar” o “lismonear” (éstas son palabras escrupulosas que quieren expresar la no existencia del negocio en el expendio de objetos religiosos) escapularios y cordones del Señor de los Milagros. Abunda la concurrencia igualmente, cuando hay locutorio y los familiares de las monjitas acuden a conversar con aquí fenómeno de la asociación de ideas quiere cantar y sólo mal entona, afición de todos los que están en su estado, esta coplita referente a la negrería: 
+“Que bonita es una negra
+Cuando pare dos negritos:
+Uno se prende´ e la teta
+Y el otro se mata a gritos”.
+A las once en punto de la noche don Juan Solari, cierra cuidadosamente su baratillo “El Mesías de los Pobres”, abierto desde la madrugada, y la plazuela duerme en paz…
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1575,10 +1575,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1920,11 +1923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1966,7 +1972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1974,12 +1980,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,15 +2001,15 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2057,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2081,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,7 +2097,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2113,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
